--- a/data/outputs/management_altmetric/45.xlsx
+++ b/data/outputs/management_altmetric/45.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE59"/>
+  <dimension ref="A1:CF59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1268,6 +1276,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1519,6 +1530,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1762,6 +1776,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2009,6 +2026,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2242,6 +2262,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2471,6 +2494,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2710,6 +2736,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2949,6 +2978,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3196,6 +3228,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3437,6 +3472,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3676,6 +3714,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3925,6 +3966,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4172,6 +4216,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4423,6 +4470,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4662,6 +4712,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4913,6 +4966,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5160,6 +5216,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5415,6 +5474,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5672,6 +5734,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5911,6 +5976,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6152,6 +6220,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6391,6 +6462,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6630,6 +6704,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6877,6 +6954,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7136,6 +7216,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7379,6 +7462,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7622,6 +7708,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7865,6 +7954,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8104,6 +8196,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8351,6 +8446,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8590,6 +8688,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8833,6 +8934,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9076,6 +9180,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9317,6 +9424,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9560,6 +9670,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9793,6 +9906,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10038,6 +10154,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10285,6 +10404,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10532,6 +10654,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10779,6 +10904,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11022,6 +11150,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11269,6 +11400,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11514,6 +11648,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11769,6 +11906,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12024,6 +12164,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12271,6 +12414,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12510,6 +12656,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12761,6 +12910,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13000,6 +13152,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13259,6 +13414,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13502,6 +13660,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13745,6 +13906,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13984,6 +14148,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14223,6 +14390,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14462,6 +14632,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14709,6 +14882,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14962,6 +15138,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
